--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_024.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_024.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295004AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Ground isolation/fault determination</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
-  </si>
-  <si>
-    <t>(295021AA1.04) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Alternate decay heat removal systems</t>
-  </si>
-  <si>
-    <t>(700000AK2.09) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) AC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(295030EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Heat capacity</t>
-  </si>
-  <si>
-    <t>(295031EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Automatic depressurization system actuation</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295001AA2.07) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295005AA1.11) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) RCIC (BWR 6)</t>
-  </si>
-  <si>
-    <t>(295037EK2.20) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) High-pressure core spray</t>
-  </si>
-  <si>
-    <t>(295023AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Shutdown margin</t>
+    <t>(295037EA1.15) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) SRVs</t>
   </si>
   <si>
     <t>(295016AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Disabling/transferring control room controls</t>
   </si>
   <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295006AA2.06) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Cause of reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295025EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) RPS</t>
-  </si>
-  <si>
-    <t>(295038EK2.11) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) MSIV leakage control</t>
-  </si>
-  <si>
-    <t>(295026EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Suppression pool level</t>
+    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295019AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Alignment of backup air systems</t>
+  </si>
+  <si>
+    <t>(295027EK2.07) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Hydrogen recombiners</t>
+  </si>
+  <si>
+    <t>(295023AA1.03) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Fuel handling equipment</t>
+  </si>
+  <si>
+    <t>(295001AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reactor water level response</t>
+  </si>
+  <si>
+    <t>(295024EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295006AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Pressure control</t>
+  </si>
+  <si>
+    <t>(295018AK2.04) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295030EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) RCIC </t>
+  </si>
+  <si>
+    <t>(295025EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) RFCS initiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Suppression pool cooling</t>
+  </si>
+  <si>
+    <t>(295021AK2.02) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup</t>
+  </si>
+  <si>
+    <t>(295005AA1.06) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Condenser vacuum breaker(s)</t>
   </si>
   <si>
     <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
   </si>
   <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295013AA1.02) Ability to operate and/or monitor the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.7 / 45.6) Systems that add heat to the suppression pool</t>
-  </si>
-  <si>
-    <t>(295029EK2.07) Knowledge of the relationship between the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Drywell/containment water level</t>
-  </si>
-  <si>
-    <t>(295009AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(295011AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Increased containment cooling</t>
-  </si>
-  <si>
-    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295017AA2.03) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(300000K2.02) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Emergency air compressor</t>
-  </si>
-  <si>
-    <t>(217000K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(261000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Secondary containment pressure changes</t>
-  </si>
-  <si>
-    <t>(259002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Instrument air systems</t>
-  </si>
-  <si>
-    <t>(239002A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(215005K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RMCS (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(262002A2.05) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of UPS</t>
-  </si>
-  <si>
-    <t>(263000A4.01) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Operationally significant breakers and control power fuses</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(209002K4.08) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic system initiation</t>
-  </si>
-  <si>
-    <t>(215004A3.04) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block status</t>
+    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295032EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Impact of operating environment on components</t>
+  </si>
+  <si>
+    <t>(295034EK2.02) Knowledge of the relationship between the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION and the following systems or components: (CFR: 41.7 / 45.8) Area radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(295013AA1.03) Ability to operate and/or monitor the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.7 / 45.6) Suppression pool temperature monitoring system</t>
+  </si>
+  <si>
+    <t>(295017AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.5 / 45.6) CRV system operation</t>
+  </si>
+  <si>
+    <t>(295029EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment pressure</t>
+  </si>
+  <si>
+    <t>(211000A3.06) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) RWCU system isolation</t>
+  </si>
+  <si>
+    <t>(215004K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) Changing detector position</t>
+  </si>
+  <si>
+    <t>(215005A4.05) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) Trip bypasses</t>
+  </si>
+  <si>
+    <t>(264000K4.05) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Load shedding and sequencing</t>
   </si>
   <si>
     <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
   </si>
   <si>
-    <t>(209001K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) ADS logic</t>
-  </si>
-  <si>
-    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
-  </si>
-  <si>
-    <t>(205000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Recirculation system</t>
-  </si>
-  <si>
-    <t>(211000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Pump amps</t>
-  </si>
-  <si>
-    <t>(262001K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Uninterruptible power supply (switchyard UPS)</t>
-  </si>
-  <si>
-    <t>(218000A2.04) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS failure to initiate</t>
-  </si>
-  <si>
-    <t>(223002A4.06) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Confirmation of initiation to completion</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (291003K1.03) CONTROLLERS AND POSITIONERS (CFR: 41.7) Operation of valve controllers in manual and automatic modes, including seal-in features</t>
-  </si>
-  <si>
-    <t>(400000K4.07) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) System response to LOCA signal</t>
-  </si>
-  <si>
-    <t>(510000A3.02) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Valve alignment</t>
-  </si>
-  <si>
-    <t>(300000K2.01) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Instrument air compressor</t>
-  </si>
-  <si>
-    <t>(217000K3.07) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Secondary containment parameters</t>
-  </si>
-  <si>
-    <t>(261000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Fuel handling building pressure changes</t>
-  </si>
-  <si>
-    <t>(259002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Reactor feedwater flow input</t>
-  </si>
-  <si>
-    <t>(286000K4.06) Knowledge of (SF8 FPS) FIRE PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.5 / 41.7 / 45.3 to 45.8) Fire suppression</t>
-  </si>
-  <si>
-    <t>(510001A3.01) Ability to monitor automatic operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.7 / 45.5) Pump starts/stops</t>
-  </si>
-  <si>
-    <t>(202002K2.02) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Hydraulic power unit</t>
-  </si>
-  <si>
-    <t>(290001K3.02) Knowledge of the effect that a loss or malfunction of the (SF5 SC) SECONDARY CONTAINMENT will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Secondary containment pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(272000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM : (CFR: 41.7 / 45.4) </t>
-  </si>
-  <si>
-    <t>(290003K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.7 / 45.7) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(202001A1.21) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.5 / 45.5) VFD current, power, and voltage</t>
-  </si>
-  <si>
-    <t>(201001K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 CRDH) CRD HYDRAULIC SYSTEM and the following systems: (CFR: 41.1-3 to 41.5-8 / 45.1-6 / 45.8) Reactor protection system</t>
-  </si>
-  <si>
-    <t>(256000A2.07) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High hotwell level</t>
-  </si>
-  <si>
-    <t>(230000A4.16) Ability to manually operate and/or monitor the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Override for suppression pool spray valve logic</t>
-  </si>
-  <si>
-    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(223002A2.03) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) System logic failures</t>
+  </si>
+  <si>
+    <t>(300000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Control rod drive hydraulic system</t>
+  </si>
+  <si>
+    <t>(400000K3.01) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Loads cooled by CCW</t>
+  </si>
+  <si>
+    <t>(209002K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Plant ventilation systems (HPCS room coolers)</t>
+  </si>
+  <si>
+    <t>(261000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Secondary containment differential pressure</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239002A3.09) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) Low-low set logic</t>
+  </si>
+  <si>
+    <t>(259002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Controller operation</t>
+  </si>
+  <si>
+    <t>(510000A4.01) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump operations</t>
+  </si>
+  <si>
+    <t>(209001K4.09) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Load sequencing</t>
+  </si>
+  <si>
+    <t>(203000K2.03) (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
+  </si>
+  <si>
+    <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
+  </si>
+  <si>
+    <t>(212000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 RPS) REACTOR PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear instrumentation</t>
+  </si>
+  <si>
+    <t>(217000K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor vessel pressure</t>
+  </si>
+  <si>
+    <t>(205000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Abnormal reactor water level</t>
+  </si>
+  <si>
+    <t>(262002A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (291002K1.13) SENSORS AND DETECTORS (CFR: 41.7) (PRESSURE) Modes of failure</t>
+  </si>
+  <si>
+    <t>(211000A3.09) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
+  </si>
+  <si>
+    <t>(215004K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) SRMS/IRM overlap</t>
+  </si>
+  <si>
+    <t>(215005A4.03) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) APRM back panel switches, meters, and indicating lights</t>
+  </si>
+  <si>
+    <t>(264000K4.06) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Governor control</t>
+  </si>
+  <si>
+    <t>(286000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 FPS) FIRE PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) System pressure</t>
+  </si>
+  <si>
+    <t>(201001) (SF1 CRDH) CRD HYDRAULIC SYSTEM (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(219000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(290001K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 SC) SECONDARY CONTAINMENT: (CFR: 41.5 / 45.3) Building delta pressure control</t>
+  </si>
+  <si>
+    <t>(290003A4.01) Ability to manually operate and/or monitor the (SF9 CRV) CONTROL ROOM VENTILATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiate/reset system</t>
+  </si>
+  <si>
+    <t>(234000K4.06) Knowledge of (SF8 FH) FUEL HANDLING design features and/or interlocks that provide for the following: (CFR: 41.7) Protection from dropping a fuel assembly</t>
+  </si>
+  <si>
+    <t>(223001K2.09) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES Knowledge of electrical power supplies to the following: (CFR: 41.7) Containment/drywell cooling fans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(216000A2.01) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Detector malfunctions </t>
+  </si>
+  <si>
+    <t>(239001K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(201005K3.06) Knowledge of the effect that a loss or malfunction of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) will have on the following systems or system parameters: (CFR: 41.6 / 41.7 / 45.4 to 45.6) Fuel handling system</t>
+  </si>
+  <si>
+    <t>(272000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM : (CFR: 41.7 / 45.7) AC power</t>
+  </si>
+  <si>
+    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(292005K1.04) CONTROL RODS (CFR: 41.1) Predict direction of change in reactor power for a change in control rod position</t>
+  </si>
+  <si>
+    <t>(292008K1.29) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (NORMAL REACTOR SHUTDOWN) Define decay heat</t>
+  </si>
+  <si>
+    <t>(293006K1.10) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define cavitation</t>
+  </si>
+  <si>
+    <t>(293010K1.01) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the brittle fracture mode of failure</t>
+  </si>
+  <si>
+    <t>(293003K1.22) STEAM (CFR: 41.14) Explain the usefulness of steam tables to the control</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295016AA2.06) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Cooldown rate</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AA2.07) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operations status of safety-related (vital) buses</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295002AA2.05) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Condensate temperature</t>
+  </si>
+  <si>
+    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(223002A2.05) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Nuclear boiler instrumentation failures</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(400000A2.11) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to reactor recirculation pump</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(204000A2.05) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal valve position</t>
+  </si>
+  <si>
+    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(256000A2.15) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal water quality</t>
+  </si>
+  <si>
+    <t>(G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
   </si>
   <si>
     <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292005K1.01) CONTROL RODS (CFR: 41.1) Relate notch and rod position</t>
-  </si>
-  <si>
-    <t>(292008K1.23) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain the necessity for rod pattern exchanges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(292003K1.08) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Given the power equation, solve problems for power </t>
-  </si>
-  <si>
-    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
-  </si>
-  <si>
-    <t>(293008K1.25) THERMAL HYDRAULICS (CFR: 41.14) (RECIRCULATION SYSTEM) Explain the reason for forced core recirculation</t>
-  </si>
-  <si>
-    <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
-  </si>
-  <si>
-    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(700000AA2.09) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of emergency diesel generators</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
-  </si>
-  <si>
-    <t>(295020AA2.10) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor building radiation</t>
-  </si>
-  <si>
-    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295008AA2.02) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feedflow mismatch</t>
-  </si>
-  <si>
-    <t>(239002A2.03) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck-open SRV</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(203000A2.18) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239001A2.05) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Main steam line high radiation</t>
-  </si>
-  <si>
-    <t>(219000) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+    <t>(G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+    <t>(G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>K1</t>
   </si>
   <si>
     <t>K2</t>
   </si>
   <si>
-    <t>K1</t>
+    <t>A3</t>
   </si>
   <si>
     <t>K5</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295004</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295003</t>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295026</t>
   </si>
   <si>
     <t>295021</t>
   </si>
   <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
     <t>600000</t>
   </si>
   <si>
-    <t>295019</t>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295034</t>
   </si>
   <si>
     <t>295013</t>
   </si>
   <si>
+    <t>295017</t>
+  </si>
+  <si>
     <t>295029</t>
   </si>
   <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295017</t>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>223002</t>
   </si>
   <si>
     <t>300000</t>
   </si>
   <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
     <t>217000</t>
   </si>
   <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>215005</t>
+    <t>205000</t>
   </si>
   <si>
     <t>262002</t>
   </si>
   <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
     <t>218000</t>
   </si>
   <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
     <t>286000</t>
   </si>
   <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>202002</t>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>219000</t>
   </si>
   <si>
     <t>290001</t>
   </si>
   <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
     <t>272000</t>
   </si>
   <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>201001</t>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>290002</t>
   </si>
   <si>
     <t>256000</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>219000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1871,7 +1871,7 @@
         <v>3.4</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2007,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2041,7 +2041,7 @@
         <v>3.1</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2415,7 +2415,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
